--- a/xlsx/地中海型氣候_intext.xlsx
+++ b/xlsx/地中海型氣候_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地中海</t>
   </si>
   <si>
-    <t>政策_政策_加州_地中海型氣候</t>
+    <t>体育运动_体育运动_古希腊_地中海型氣候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
